--- a/052c doc/各版本精度信息统计.xlsx
+++ b/052c doc/各版本精度信息统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\wd\FG-052D\FG-052D\052c doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32DE9D84-3F62-4DD7-A0BB-93F36A0F2E39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9B6390-6410-4C6C-ACD7-498225A8893C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>改进</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,15 +43,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>full-joint only</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>top1精度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>top5精度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>joint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>joint wo C wo tune</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -401,10 +405,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -415,7 +419,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1">
         <v>0.9415</v>
@@ -425,6 +429,23 @@
       </c>
       <c r="E2">
         <v>31.02</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.8296</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.96819999999999995</v>
+      </c>
+      <c r="E3">
+        <v>54.69</v>
       </c>
     </row>
   </sheetData>

--- a/052c doc/各版本精度信息统计.xlsx
+++ b/052c doc/各版本精度信息统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\wd\FG-052D\FG-052D\052c doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9B6390-6410-4C6C-ACD7-498225A8893C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA6102D-4A0C-4DBB-A64A-49CB086CFEE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>改进</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +56,30 @@
   </si>
   <si>
     <t>joint wo C wo tune</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baseline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>joint + 10%随机跳过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>joint + 33%随机跳过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>joint + 50%随机跳过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>joint + 70%随机跳过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>joint + 90%随机跳过</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -385,16 +409,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="16.75" customWidth="1"/>
+    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -446,6 +471,91 @@
       </c>
       <c r="E3">
         <v>54.69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.9415</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.99080000000000001</v>
+      </c>
+      <c r="E4">
+        <v>27.98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.93840000000000001</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.99039999999999995</v>
+      </c>
+      <c r="E5">
+        <v>30.34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.93940000000000001</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.99039999999999995</v>
+      </c>
+      <c r="E6">
+        <v>28.78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.87490000000000001</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.98360000000000003</v>
+      </c>
+      <c r="E7">
+        <v>26.15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.28420000000000001</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.61770000000000003</v>
+      </c>
+      <c r="E8">
+        <v>25.72</v>
       </c>
     </row>
   </sheetData>

--- a/052c doc/各版本精度信息统计.xlsx
+++ b/052c doc/各版本精度信息统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\wd\FG-052D\FG-052D\052c doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA6102D-4A0C-4DBB-A64A-49CB086CFEE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F252671C-0A8B-402F-B6A7-A0B46DFF0023}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>改进</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +80,58 @@
   </si>
   <si>
     <t>joint + 90%随机跳过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baseline+欧式0.3跳过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>joint + 75.32%跳过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>joint+ 71.94%跳过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baseline+欧式0.27跳过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baseline+欧式0.15跳过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>joint+ 47.15%跳过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baseline+cos 0.99跳过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>joint +83.94%跳过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baseline+cos 0.999跳过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>joint + 42.81%跳过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baseline + cos 0.995跳过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>joint+75.11%跳过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>joint + 75%随机跳过</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,15 +461,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="1" max="1" width="21.125" customWidth="1"/>
     <col min="2" max="2" width="16.75" customWidth="1"/>
     <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
@@ -558,6 +610,125 @@
         <v>25.72</v>
       </c>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.78010000000000002</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.93920000000000003</v>
+      </c>
+      <c r="E9">
+        <v>11.61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.81079999999999997</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.9526</v>
+      </c>
+      <c r="E10">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.91269999999999996</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.98719999999999997</v>
+      </c>
+      <c r="E11">
+        <v>12.08</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.65659999999999996</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.8901</v>
+      </c>
+      <c r="E12">
+        <v>8.4700000000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.92430000000000001</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.98860000000000003</v>
+      </c>
+      <c r="E13">
+        <v>8.6199999999999992</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.79269999999999996</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.95069999999999999</v>
+      </c>
+      <c r="E14">
+        <v>6.83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.90429999999999999</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.98770000000000002</v>
+      </c>
+      <c r="E15">
+        <v>26.76</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/052c doc/各版本精度信息统计.xlsx
+++ b/052c doc/各版本精度信息统计.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\wd\FG-052D\FG-052D\052c doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\310-w\Desktop\TempGit\FG-052D\052c doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F252671C-0A8B-402F-B6A7-A0B46DFF0023}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BCF26AA-FD0F-4B7A-B3E5-3B908F37B8B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>改进</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,6 +132,10 @@
   </si>
   <si>
     <t>joint + 75%随机跳过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>woC ft</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -461,20 +465,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.125" customWidth="1"/>
-    <col min="2" max="2" width="16.75" customWidth="1"/>
-    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -491,7 +495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -508,7 +512,7 @@
         <v>31.02</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -525,7 +529,7 @@
         <v>54.69</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -542,7 +546,7 @@
         <v>27.98</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -559,7 +563,7 @@
         <v>30.34</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -576,7 +580,7 @@
         <v>28.78</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -593,7 +597,7 @@
         <v>26.15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -610,7 +614,7 @@
         <v>25.72</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -627,7 +631,7 @@
         <v>11.61</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -644,7 +648,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -661,7 +665,7 @@
         <v>12.08</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -678,7 +682,7 @@
         <v>8.4700000000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -695,7 +699,7 @@
         <v>8.6199999999999992</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -712,7 +716,7 @@
         <v>6.83</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -727,6 +731,17 @@
       </c>
       <c r="E15">
         <v>26.76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.9204</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.98970000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/052c doc/各版本精度信息统计.xlsx
+++ b/052c doc/各版本精度信息统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\310-w\Desktop\TempGit\FG-052D\052c doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BCF26AA-FD0F-4B7A-B3E5-3B908F37B8B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E2519E-CE52-41C5-A4C7-DFF75D1396CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>改进</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,6 +136,14 @@
   </si>
   <si>
     <t>woC ft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baseline+全剪枝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阈值0.01，压缩29.9%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -465,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -744,6 +752,20 @@
         <v>0.98970000000000002</v>
       </c>
     </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.93479999999999996</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.9899</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/052c doc/各版本精度信息统计.xlsx
+++ b/052c doc/各版本精度信息统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\310-w\Desktop\TempGit\FG-052D\052c doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E2519E-CE52-41C5-A4C7-DFF75D1396CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417561C2-B9B2-43F0-8035-9B48357499F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="12360" yWindow="6360" windowWidth="7500" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>改进</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -144,6 +144,14 @@
   </si>
   <si>
     <t>阈值0.01，压缩29.9%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阈值0.03，压缩71.79%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阈值0.05，压缩85.41%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -473,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -766,6 +774,22 @@
         <v>0.9899</v>
       </c>
     </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/052c doc/各版本精度信息统计.xlsx
+++ b/052c doc/各版本精度信息统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\310-w\Desktop\TempGit\FG-052D\052c doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417561C2-B9B2-43F0-8035-9B48357499F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA5E804-F285-44AE-8FF3-5D5EC49F7FF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="12360" yWindow="6360" windowWidth="7500" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="0" windowWidth="23016" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>改进</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,15 +143,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>阈值0.01，压缩29.9%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阈值0.03，压缩71.79%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阈值0.05，压缩85.41%</t>
+    <t>阈值0.01，压缩45.51%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阈值0.02，压缩63.70%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阈值0.03，压缩74.91%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阈值0.025，压缩69.90%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -481,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -760,7 +768,7 @@
         <v>0.98970000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -768,26 +776,57 @@
         <v>28</v>
       </c>
       <c r="C17" s="1">
-        <v>0.93479999999999996</v>
+        <v>0.93410000000000004</v>
       </c>
       <c r="D17" s="1">
-        <v>0.9899</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>30</v>
       </c>
       <c r="B18" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="1">
+        <v>0.92479999999999996</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.98948999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
         <v>28</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.85140000000000005</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.97460000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.90249999999999997</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.98609999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/052c doc/各版本精度信息统计.xlsx
+++ b/052c doc/各版本精度信息统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\310-w\Desktop\TempGit\FG-052D\052c doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA5E804-F285-44AE-8FF3-5D5EC49F7FF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034B9E0F-D2EC-4E08-9C0D-4F2A1EB91324}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24" yWindow="0" windowWidth="23016" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
   <si>
     <t>改进</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -160,6 +160,14 @@
   </si>
   <si>
     <t>阈值0.025，压缩69.90%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阈值0.035，压缩78.98%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阈值0.015，压缩55.8%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -492,7 +500,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -824,6 +832,34 @@
         <v>0.98609999999999998</v>
       </c>
     </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.74250000000000005</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.94489999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.99</v>
+      </c>
+    </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F23" t="s">
         <v>31</v>

--- a/052c doc/各版本精度信息统计.xlsx
+++ b/052c doc/各版本精度信息统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\310-w\Desktop\TempGit\FG-052D\052c doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034B9E0F-D2EC-4E08-9C0D-4F2A1EB91324}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042485F7-FA23-4C4F-BCC3-BEFA409D1E59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24" yWindow="0" windowWidth="23016" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
   <si>
     <t>改进</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -168,6 +168,10 @@
   </si>
   <si>
     <t>阈值0.015，压缩55.8%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_prune 组2 压缩率50%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -500,12 +504,12 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.109375" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" customWidth="1"/>
     <col min="2" max="2" width="16.77734375" customWidth="1"/>
     <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
@@ -861,6 +865,18 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.92649999999999999</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.98960000000000004</v>
+      </c>
       <c r="F23" t="s">
         <v>31</v>
       </c>

--- a/052c doc/各版本精度信息统计.xlsx
+++ b/052c doc/各版本精度信息统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\310-w\Desktop\TempGit\FG-052D\052c doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042485F7-FA23-4C4F-BCC3-BEFA409D1E59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3D9583-F89C-4AB4-B2BC-E92F1BC6FED4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="0" windowWidth="23016" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
   <si>
     <t>改进</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,10 +135,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>woC ft</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>baseline+全剪枝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -172,6 +168,26 @@
   </si>
   <si>
     <t>max_prune 组2 压缩率50%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>woC ft (输入数据跳过)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>woC ft (输入数据无跳过)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习率6step下降</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习率遵循原代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg-4 压缩率25% ft</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -501,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -771,7 +787,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C16" s="1">
         <v>0.9204</v>
@@ -782,10 +798,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="1">
         <v>0.93410000000000004</v>
@@ -796,10 +812,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="1">
         <v>0.92479999999999996</v>
@@ -810,10 +826,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="1">
         <v>0.85140000000000005</v>
@@ -824,10 +840,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" s="1">
         <v>0.90249999999999997</v>
@@ -838,10 +854,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" s="1">
         <v>0.74250000000000005</v>
@@ -852,10 +868,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="1">
         <v>0.93100000000000005</v>
@@ -866,7 +882,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -878,7 +894,49 @@
         <v>0.98960000000000004</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.91759999999999997</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.9899</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.91759999999999997</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.9899</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.82130000000000003</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.97430000000000005</v>
       </c>
     </row>
   </sheetData>

--- a/052c doc/各版本精度信息统计.xlsx
+++ b/052c doc/各版本精度信息统计.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\310-w\Desktop\TempGit\FG-052D\052c doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\wd\FG-052D\FG-052D\052c doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3D9583-F89C-4AB4-B2BC-E92F1BC6FED4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3007C5E-B231-427D-8B02-7F56DF688956}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -520,17 +520,17 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.875" customWidth="1"/>
+    <col min="2" max="2" width="16.75" customWidth="1"/>
+    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -547,7 +547,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -564,7 +564,7 @@
         <v>31.02</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -581,7 +581,7 @@
         <v>54.69</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -598,7 +598,7 @@
         <v>27.98</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -615,7 +615,7 @@
         <v>30.34</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -632,7 +632,7 @@
         <v>28.78</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -649,7 +649,7 @@
         <v>26.15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -666,7 +666,7 @@
         <v>25.72</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -683,7 +683,7 @@
         <v>11.61</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -700,7 +700,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -717,7 +717,7 @@
         <v>12.08</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -734,7 +734,7 @@
         <v>8.4700000000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -751,7 +751,7 @@
         <v>8.6199999999999992</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -768,7 +768,7 @@
         <v>6.83</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -785,7 +785,7 @@
         <v>26.76</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -796,7 +796,7 @@
         <v>0.98970000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -810,7 +810,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -824,7 +824,7 @@
         <v>0.98948999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -838,7 +838,7 @@
         <v>0.97460000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -852,7 +852,7 @@
         <v>0.98609999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -866,7 +866,7 @@
         <v>0.94489999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -880,7 +880,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -897,7 +897,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -911,7 +911,7 @@
         <v>0.9899</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -919,13 +919,13 @@
         <v>39</v>
       </c>
       <c r="C25" s="1">
-        <v>0.91759999999999997</v>
+        <v>0.92759999999999998</v>
       </c>
       <c r="D25" s="1">
-        <v>0.9899</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.98980000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>40</v>
       </c>

--- a/052c doc/各版本精度信息统计.xlsx
+++ b/052c doc/各版本精度信息统计.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\wd\FG-052D\FG-052D\052c doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\310-w\Desktop\TempGit\FG-052D\052c doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3007C5E-B231-427D-8B02-7F56DF688956}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8797230-2D6C-4900-BE29-C25895C62F78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="0" windowWidth="23016" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t>改进</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -188,6 +188,10 @@
   </si>
   <si>
     <t>msg-4 压缩率25% ft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg-2 压缩率50% ft</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -517,20 +521,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.875" customWidth="1"/>
-    <col min="2" max="2" width="16.75" customWidth="1"/>
-    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -547,7 +551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -564,7 +568,7 @@
         <v>31.02</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -581,7 +585,7 @@
         <v>54.69</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -598,7 +602,7 @@
         <v>27.98</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -615,7 +619,7 @@
         <v>30.34</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -632,7 +636,7 @@
         <v>28.78</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -649,7 +653,7 @@
         <v>26.15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -666,7 +670,7 @@
         <v>25.72</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -683,7 +687,7 @@
         <v>11.61</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -700,7 +704,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -717,7 +721,7 @@
         <v>12.08</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -734,7 +738,7 @@
         <v>8.4700000000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -751,7 +755,7 @@
         <v>8.6199999999999992</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -768,7 +772,7 @@
         <v>6.83</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -785,7 +789,7 @@
         <v>26.76</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -796,7 +800,7 @@
         <v>0.98970000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -810,7 +814,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -824,7 +828,7 @@
         <v>0.98948999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -838,7 +842,7 @@
         <v>0.97460000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -852,7 +856,7 @@
         <v>0.98609999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -866,7 +870,7 @@
         <v>0.94489999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -880,7 +884,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -897,7 +901,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -911,7 +915,7 @@
         <v>0.9899</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -925,7 +929,7 @@
         <v>0.98980000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -937,6 +941,20 @@
       </c>
       <c r="D26" s="1">
         <v>0.97430000000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.84730000000000005</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.97770000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/052c doc/各版本精度信息统计.xlsx
+++ b/052c doc/各版本精度信息统计.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\310-w\Desktop\TempGit\FG-052D\052c doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8797230-2D6C-4900-BE29-C25895C62F78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153E6C12-A521-4734-AE44-57C7B783A8CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24" yWindow="0" windowWidth="23016" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
   <si>
     <t>改进</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -192,6 +192,10 @@
   </si>
   <si>
     <t>msg-2 压缩率50% ft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>woC ft (输入数据67%随机跳过)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -521,15 +525,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
     <col min="2" max="2" width="16.77734375" customWidth="1"/>
     <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
@@ -957,6 +961,20 @@
         <v>0.97770000000000001</v>
       </c>
     </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.92349999999999999</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.9899</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/052c doc/各版本精度信息统计.xlsx
+++ b/052c doc/各版本精度信息统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\310-w\Desktop\TempGit\FG-052D\052c doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153E6C12-A521-4734-AE44-57C7B783A8CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF7FCD5-35C6-434F-8055-BD111A236DC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24" yWindow="0" windowWidth="23016" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
   <si>
     <t>改进</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -196,6 +196,14 @@
   </si>
   <si>
     <t>woC ft (输入数据67%随机跳过)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>woC pre-ft 无跳过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习率遵循原代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -525,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -536,6 +544,7 @@
     <col min="1" max="1" width="30.6640625" customWidth="1"/>
     <col min="2" max="2" width="16.77734375" customWidth="1"/>
     <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -974,6 +983,22 @@
       <c r="D28" s="1">
         <v>0.9899</v>
       </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.93979999999999997</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.98939999999999995</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/052c doc/各版本精度信息统计.xlsx
+++ b/052c doc/各版本精度信息统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\310-w\Desktop\TempGit\FG-052D\052c doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF7FCD5-35C6-434F-8055-BD111A236DC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AC71DF-0CC6-450F-BA16-263CFC75C466}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24" yWindow="0" windowWidth="23016" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
   <si>
     <t>改进</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -204,6 +204,10 @@
   </si>
   <si>
     <t>学习率遵循原代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>woC 66.7%随机跳过ft</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -533,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29:F29"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1000,6 +1004,20 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.93730000000000002</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.98939999999999995</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/052c doc/各版本精度信息统计.xlsx
+++ b/052c doc/各版本精度信息统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\310-w\Desktop\TempGit\FG-052D\052c doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AC71DF-0CC6-450F-BA16-263CFC75C466}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF47683-24D2-4A81-BFA1-D59DEB103BF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="0" windowWidth="23016" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -537,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1018,6 +1018,18 @@
         <v>0.98939999999999995</v>
       </c>
     </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/052c doc/各版本精度信息统计.xlsx
+++ b/052c doc/各版本精度信息统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\310-w\Desktop\TempGit\FG-052D\052c doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF47683-24D2-4A81-BFA1-D59DEB103BF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E603678B-2E9A-4B06-9374-B866AED749CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
   <si>
     <t>改进</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -208,6 +208,14 @@
   </si>
   <si>
     <t>woC 66.7%随机跳过ft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>woC 80%随机跳过ft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>woC msg4skip67woL1 ft</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -540,7 +548,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1018,6 +1026,34 @@
         <v>0.98939999999999995</v>
       </c>
     </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.93230000000000002</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.98939999999999995</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.92720000000000002</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
     </row>

--- a/052c doc/各版本精度信息统计.xlsx
+++ b/052c doc/各版本精度信息统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\310-w\Desktop\TempGit\FG-052D\052c doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E603678B-2E9A-4B06-9374-B866AED749CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354E6053-0794-471A-9B96-AC8BA584F93C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
   <si>
     <t>改进</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -216,6 +216,14 @@
   </si>
   <si>
     <t>woC msg4skip67woL1 ft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>woC skip80baseskip890</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>woC_dcp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -547,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1054,16 +1062,38 @@
         <v>0.98799999999999999</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.92669999999999997</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.9869</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.93879999999999997</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.98980000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
     </row>
   </sheetData>

--- a/052c doc/各版本精度信息统计.xlsx
+++ b/052c doc/各版本精度信息统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\310-w\Desktop\TempGit\FG-052D\052c doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354E6053-0794-471A-9B96-AC8BA584F93C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1464FCC8-2531-465C-9E23-686DDA9E9919}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
   <si>
     <t>改进</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -220,10 +220,6 @@
   </si>
   <si>
     <t>woC skip80baseskip890</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>woC_dcp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -555,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1077,21 +1073,12 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" s="1">
-        <v>0.93879999999999997</v>
-      </c>
-      <c r="D34" s="1">
-        <v>0.98980000000000001</v>
-      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>

--- a/052c doc/各版本精度信息统计.xlsx
+++ b/052c doc/各版本精度信息统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\310-w\Desktop\TempGit\FG-052D\052c doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1464FCC8-2531-465C-9E23-686DDA9E9919}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259D7B64-7EB8-4AC2-9B47-9D7A98E7DE1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="600" windowWidth="23016" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
   <si>
     <t>改进</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -220,6 +220,10 @@
   </si>
   <si>
     <t>woC skip80baseskip890</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>woC_cmpt50 ft</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -552,7 +556,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1073,8 +1077,18 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+      <c r="A34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.93740000000000001</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.99009999999999998</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C35" s="1"/>

--- a/052c doc/各版本精度信息统计.xlsx
+++ b/052c doc/各版本精度信息统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\310-w\Desktop\TempGit\FG-052D\052c doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259D7B64-7EB8-4AC2-9B47-9D7A98E7DE1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964F2AF0-1651-422B-9F7F-F583DEF31725}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="600" windowWidth="23016" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
   <si>
     <t>改进</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -555,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1091,8 +1091,18 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="A35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.93320000000000003</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.98850000000000005</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>

--- a/052c doc/各版本精度信息统计.xlsx
+++ b/052c doc/各版本精度信息统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\310-w\Desktop\TempGit\FG-052D\052c doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964F2AF0-1651-422B-9F7F-F583DEF31725}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A53EDBD-6020-4C9D-867D-7FA05304CFCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="53">
   <si>
     <t>改进</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -224,6 +224,18 @@
   </si>
   <si>
     <t>woC_cmpt50 ft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>woC_cmpt67 ft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>woC_dcp ft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>woC_dcpfc0 ft</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -553,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1092,7 +1104,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B35" t="s">
         <v>39</v>
@@ -1105,7 +1117,26 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="1"/>
+      <c r="A36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.9415</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.99070000000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/052c doc/各版本精度信息统计.xlsx
+++ b/052c doc/各版本精度信息统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\310-w\Desktop\TempGit\FG-052D\052c doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A53EDBD-6020-4C9D-867D-7FA05304CFCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF4BA67-2F12-444B-BB0F-2DD574711B4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="0" windowWidth="23016" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -568,7 +568,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1137,6 +1137,12 @@
       <c r="B37" t="s">
         <v>39</v>
       </c>
+      <c r="C37" s="1">
+        <v>0.93879999999999997</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.99080000000000001</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/052c doc/各版本精度信息统计.xlsx
+++ b/052c doc/各版本精度信息统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\310-w\Desktop\TempGit\FG-052D\052c doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF4BA67-2F12-444B-BB0F-2DD574711B4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77894B77-80C1-4936-86C3-FE9E5C362427}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="0" windowWidth="23016" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10272" yWindow="1068" windowWidth="23016" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
   <si>
     <t>改进</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -236,6 +236,22 @@
   </si>
   <si>
     <t>woC_dcpfc0 ft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>woC_113dcpfc0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渐进式剪枝+3段学习率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>woC_dcpfc0cmpt50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3段学习率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -565,16 +581,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" customWidth="1"/>
     <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
@@ -1144,6 +1160,34 @@
         <v>0.99080000000000001</v>
       </c>
     </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.93980000000000008</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.99049999999999994</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.93420000000000003</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.9899</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/052c doc/各版本精度信息统计.xlsx
+++ b/052c doc/各版本精度信息统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\310-w\Desktop\TempGit\FG-052D\052c doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77894B77-80C1-4936-86C3-FE9E5C362427}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700CF914-0B72-4ABE-B440-EA2B70447817}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10272" yWindow="1068" windowWidth="23016" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8304" yWindow="2352" windowWidth="23016" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="60">
   <si>
     <t>改进</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -252,6 +252,18 @@
   </si>
   <si>
     <t>3段学习率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>woC_tsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>woC_112dcp1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>woC_113dcpfc0cmpt50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -581,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1188,6 +1200,48 @@
         <v>0.9899</v>
       </c>
     </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.94210000000000005</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.98980000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.94409999999999994</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.99199999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.9405</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.99129999999999996</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/052c doc/各版本精度信息统计.xlsx
+++ b/052c doc/各版本精度信息统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\310-w\Desktop\TempGit\FG-052D\052c doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700CF914-0B72-4ABE-B440-EA2B70447817}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8347B1-001C-4A36-BDB6-DF9E001B0EA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8304" yWindow="2352" windowWidth="23016" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="12" windowWidth="23016" windowHeight="12348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="61">
   <si>
     <t>改进</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -264,6 +264,10 @@
   </si>
   <si>
     <t>woC_113dcpfc0cmpt50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>woC_113dcpfc0cmpt50tsp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -593,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1242,6 +1246,20 @@
         <v>0.99129999999999996</v>
       </c>
     </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0.94040000000000001</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.99070000000000003</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/052c doc/各版本精度信息统计.xlsx
+++ b/052c doc/各版本精度信息统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\310-w\Desktop\TempGit\FG-052D\052c doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8347B1-001C-4A36-BDB6-DF9E001B0EA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D0A879-C5B0-4411-A66A-E0325FD074DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="12" windowWidth="23016" windowHeight="12348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8664" yWindow="1248" windowWidth="23016" windowHeight="12348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="62">
   <si>
     <t>改进</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -268,6 +268,10 @@
   </si>
   <si>
     <t>woC_113dcpfc0cmpt50tsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>woC_112dcp1fc0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -597,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1260,6 +1264,20 @@
         <v>0.99070000000000003</v>
       </c>
     </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.94059999999999999</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0.99129999999999996</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/052c doc/各版本精度信息统计.xlsx
+++ b/052c doc/各版本精度信息统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\310-w\Desktop\TempGit\FG-052D\052c doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D0A879-C5B0-4411-A66A-E0325FD074DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337A6365-44ED-467E-B277-938BE9B40605}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8664" yWindow="1248" windowWidth="23016" windowHeight="12348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9468" yWindow="372" windowWidth="23016" windowHeight="12348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="63">
   <si>
     <t>改进</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -272,6 +272,10 @@
   </si>
   <si>
     <t>woC_112dcp1fc0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>woC_113dcpfc0cmpt67tsp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -601,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1278,6 +1282,20 @@
         <v>0.99129999999999996</v>
       </c>
     </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.93680000000000008</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.98930000000000007</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/052c doc/各版本精度信息统计.xlsx
+++ b/052c doc/各版本精度信息统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\310-w\Desktop\TempGit\FG-052D\052c doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337A6365-44ED-467E-B277-938BE9B40605}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A5B6FD-702E-412E-A4A2-A05194F4B9FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9468" yWindow="372" windowWidth="23016" windowHeight="12348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="12" windowWidth="23016" windowHeight="12348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="64">
   <si>
     <t>改进</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -276,6 +276,10 @@
   </si>
   <si>
     <t>woC_113dcpfc0cmpt67tsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>woC_112dcp1fc0cmpt50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -605,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1296,6 +1300,20 @@
         <v>0.98930000000000007</v>
       </c>
     </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.94169999999999998</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.99129999999999996</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/052c doc/各版本精度信息统计.xlsx
+++ b/052c doc/各版本精度信息统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\310-w\Desktop\TempGit\FG-052D\052c doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A5B6FD-702E-412E-A4A2-A05194F4B9FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C0407A-509A-4D58-A053-FE4BE7085EF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="12" windowWidth="23016" windowHeight="12348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="65">
   <si>
     <t>改进</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -280,6 +280,10 @@
   </si>
   <si>
     <t>woC_112dcp1fc0cmpt50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>woC_tsp1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -609,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1314,6 +1318,20 @@
         <v>0.99129999999999996</v>
       </c>
     </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.9425</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.9909</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/052c doc/各版本精度信息统计.xlsx
+++ b/052c doc/各版本精度信息统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\310-w\Desktop\TempGit\FG-052D\052c doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C0407A-509A-4D58-A053-FE4BE7085EF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C895A2DF-BD3A-46BE-B7AB-69B527E012CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="12" windowWidth="23016" windowHeight="12348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="66">
   <si>
     <t>改进</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -284,6 +284,10 @@
   </si>
   <si>
     <t>woC_tsp1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>woC_112dcp1fc0cmpt50tsp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -613,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1332,6 +1336,20 @@
         <v>0.9909</v>
       </c>
     </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.94400000000000006</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0.99109999999999998</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/052c doc/各版本精度信息统计.xlsx
+++ b/052c doc/各版本精度信息统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\310-w\Desktop\TempGit\FG-052D\052c doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C895A2DF-BD3A-46BE-B7AB-69B527E012CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34C5DE9-3C95-4D43-ABD6-22AD2DBDBE56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="12" windowWidth="23016" windowHeight="12348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="65">
   <si>
     <t>改进</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -284,10 +284,6 @@
   </si>
   <si>
     <t>woC_tsp1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>woC_112dcp1fc0cmpt50tsp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -620,7 +616,7 @@
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1337,18 +1333,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>65</v>
-      </c>
-      <c r="B48" t="s">
-        <v>56</v>
-      </c>
-      <c r="C48" s="1">
-        <v>0.94400000000000006</v>
-      </c>
-      <c r="D48" s="1">
-        <v>0.99109999999999998</v>
-      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/052c doc/各版本精度信息统计.xlsx
+++ b/052c doc/各版本精度信息统计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\310-w\Desktop\TempGit\FG-052D\052c doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34C5DE9-3C95-4D43-ABD6-22AD2DBDBE56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17D1175-8872-4FB3-950F-F266CA8EB6F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12" windowWidth="23016" windowHeight="12348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1620" yWindow="2460" windowWidth="23016" windowHeight="12348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="66">
   <si>
     <t>改进</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -284,6 +284,10 @@
   </si>
   <si>
     <t>woC_tsp1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>woC_112dcp1fc0cmpt50tsp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -616,7 +620,7 @@
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1333,8 +1337,18 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
+      <c r="A48" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.94259999999999999</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0.99180000000000001</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
